--- a/KeywordDriven.TestExplorer/TestDefintion/TestCases.xlsx
+++ b/KeywordDriven.TestExplorer/TestDefintion/TestCases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD86F6AD-0943-4F3C-84BB-0CA94AB02088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07CC12-A9AC-4759-8CD3-1E31D650EF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="502" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Enter</t>
   </si>
   <si>
-    <t>Wait</t>
-  </si>
-  <si>
     <t>Close Chrome Browser</t>
   </si>
   <si>
@@ -241,13 +238,13 @@
     <t>User write task to do</t>
   </si>
   <si>
+    <t>//button[contains(.,'Clear completed')]</t>
+  </si>
+  <si>
+    <t>Clear completed</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>//button[contains(.,'Clear completed')]</t>
-  </si>
-  <si>
-    <t>Clear completed</t>
   </si>
 </sst>
 </file>
@@ -777,7 +774,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -956,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB1471F-1CB0-4621-A8B3-BF63F774307A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1001,10 +998,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1017,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1052,33 +1049,33 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1095,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1176,7 +1173,7 @@
         <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1210,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>33</v>
@@ -1222,7 +1219,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1245,233 +1242,193 @@
         <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="15">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B14" s="15">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="15">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>68</v>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E10 E2:E3 E12:E16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E5:E9 E11:E14" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>ActionKeywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D9:D14" xr:uid="{C76ABD27-F100-4365-B126-D61C5EBFE02C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D8:D13" xr:uid="{C76ABD27-F100-4365-B126-D61C5EBFE02C}">
       <formula1>PageObjects</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{7021B38F-F440-4C5A-9A53-95B90BAF067A}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{6DC1FE8D-2BCD-4514-97DC-4FBC3D64697C}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{6DC1FE8D-2BCD-4514-97DC-4FBC3D64697C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1482,7 +1439,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$2:$B$18</xm:f>
           </x14:formula1>
-          <xm:sqref>E4 E11</xm:sqref>
+          <xm:sqref>E4 E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
